--- a/xtt_demo/ZXXT_DEMO_021_R.XLSX
+++ b/xtt_demo/ZXXT_DEMO_021_R.XLSX
@@ -1,22 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20371"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moldab\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\!current\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50987295-3BAD-4289-877E-78174E491290}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Formula" sheetId="2" r:id="rId1"/>
     <sheet name="SimpleTree" sheetId="3" r:id="rId2"/>
-    <sheet name="Tree3" sheetId="4" r:id="rId3"/>
+    <sheet name="ArrayFormula" sheetId="5" r:id="rId3"/>
+    <sheet name="Tree3" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
+    <definedName name="ARR_NUMBER">'ArrayFormula'!$D$5:$D$19</definedName>
+    <definedName name="ARR_SUM1">'ArrayFormula'!$E$5:$E$19</definedName>
     <definedName name="E_1">'Tree3'!$E$9</definedName>
     <definedName name="E_2">'Tree3'!$E$15</definedName>
     <definedName name="E_3">'Tree3'!$E$18</definedName>
@@ -38,7 +42,7 @@
     <definedName name="F_9">'SimpleTree'!$F$13</definedName>
     <definedName name="RANGE_SUM1" localSheetId="1">'SimpleTree'!$E$5:$E$19</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -48,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>&lt;Caption 1 /&gt;</t>
   </si>
@@ -95,9 +99,21 @@
     <t>&lt;Caption 9 /&gt;</t>
   </si>
   <si>
+    <t>After</t>
+  </si>
+  <si>
+    <t>Array FM1</t>
+  </si>
+  <si>
+    <t>Array FM2</t>
+  </si>
+  <si>
     <t>Average by all groups</t>
   </si>
   <si>
+    <t>Before</t>
+  </si>
+  <si>
     <t>Caption</t>
   </si>
   <si>
@@ -122,6 +138,15 @@
     <t>Group</t>
   </si>
   <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Number * SUM 1</t>
+  </si>
+  <si>
+    <t>Ordinary FM (error)</t>
+  </si>
+  <si>
     <t>SUM 1</t>
   </si>
   <si>
@@ -150,6 +175,9 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Totals with additional column</t>
   </si>
   <si>
     <t>Watch Formula</t>
@@ -158,8 +186,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -190,6 +218,20 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -211,7 +253,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -327,12 +369,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -410,6 +476,38 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -422,9 +520,310 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="14">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -435,6 +834,24 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="ARR_TAB" displayName="ARR_TAB" ref="B4:F20" totalsRowCount="1" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10" headerRowCellStyle="Normal 2" dataCellStyle="Normal 2">
+  <autoFilter ref="B4:F5" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Caption" totalsRowLabel="Totals with additional column" dataDxfId="9" totalsRowDxfId="4" dataCellStyle="Normal 2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Group" dataDxfId="8" totalsRowDxfId="3" dataCellStyle="Normal 2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Number" dataDxfId="7" totalsRowDxfId="2" dataCellStyle="Normal 2">
+      <calculatedColumnFormula>CODE(RIGHT(ARR_TAB[Group],1))-64</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="SUM 1" dataDxfId="6" totalsRowDxfId="1" dataCellStyle="Normal 2"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Number * SUM 1" totalsRowFunction="sum" dataDxfId="5" totalsRowDxfId="0" dataCellStyle="Normal 2">
+      <calculatedColumnFormula>ARR_TAB[Number]*ARR_TAB[SUM 1]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -699,7 +1116,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -721,40 +1138,40 @@
   <sheetData>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="9" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="30"/>
-      <c r="I4" s="31"/>
+        <v>34</v>
+      </c>
+      <c r="G4" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="42"/>
+      <c r="I4" s="43"/>
     </row>
     <row r="5">
       <c r="A5" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C5" s="5">
         <v>44125.000000000000</v>
@@ -783,7 +1200,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C6" s="5">
         <v>44123.000000000000</v>
@@ -812,7 +1229,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C7" s="5">
         <v>44124.000000000000</v>
@@ -841,7 +1258,7 @@
         <v>9</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C8" s="5">
         <v>44125.000000000000</v>
@@ -870,7 +1287,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C9" s="5">
         <v>44125.000000000000</v>
@@ -899,7 +1316,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C10" s="5">
         <v>44123.000000000000</v>
@@ -928,7 +1345,7 @@
         <v>12</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C11" s="5">
         <v>44124.000000000000</v>
@@ -957,7 +1374,7 @@
         <v>13</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C12" s="5">
         <v>44125.000000000000</v>
@@ -986,7 +1403,7 @@
         <v>14</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C13" s="5">
         <v>44122.000000000000</v>
@@ -1015,7 +1432,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C14" s="5">
         <v>44123.000000000000</v>
@@ -1044,7 +1461,7 @@
         <v>2</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C15" s="5">
         <v>44122.000000000000</v>
@@ -1073,7 +1490,7 @@
         <v>3</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C16" s="5">
         <v>44123.000000000000</v>
@@ -1102,7 +1519,7 @@
         <v>4</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C17" s="5">
         <v>44123.000000000000</v>
@@ -1131,7 +1548,7 @@
         <v>5</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C18" s="5">
         <v>44122.000000000000</v>
@@ -1160,7 +1577,7 @@
         <v>6</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C19" s="5">
         <v>44122.000000000000</v>
@@ -1194,11 +1611,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1216,24 +1633,24 @@
     </row>
     <row r="2">
       <c r="B2" s="1" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="20" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5">
@@ -1242,7 +1659,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D5" s="17">
         <v>44125.000000000000</v>
@@ -1260,7 +1677,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D6" s="17">
         <v>44123.000000000000</v>
@@ -1278,7 +1695,7 @@
         <v>8</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D7" s="17">
         <v>44124.000000000000</v>
@@ -1296,7 +1713,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D8" s="17">
         <v>44125.000000000000</v>
@@ -1314,7 +1731,7 @@
         <v>10</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D9" s="17">
         <v>44125.000000000000</v>
@@ -1332,7 +1749,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D10" s="17">
         <v>44123.000000000000</v>
@@ -1350,7 +1767,7 @@
         <v>12</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D11" s="17">
         <v>44124.000000000000</v>
@@ -1368,7 +1785,7 @@
         <v>13</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D12" s="17">
         <v>44125.000000000000</v>
@@ -1386,7 +1803,7 @@
         <v>14</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D13" s="17">
         <v>44122.000000000000</v>
@@ -1404,7 +1821,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D14" s="17">
         <v>44123.000000000000</v>
@@ -1422,7 +1839,7 @@
         <v>2</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D15" s="17">
         <v>44122.000000000000</v>
@@ -1440,7 +1857,7 @@
         <v>3</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D16" s="17">
         <v>44123.000000000000</v>
@@ -1458,7 +1875,7 @@
         <v>4</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D17" s="17">
         <v>44123.000000000000</v>
@@ -1476,7 +1893,7 @@
         <v>5</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D18" s="17">
         <v>44122.000000000000</v>
@@ -1494,7 +1911,7 @@
         <v>6</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D19" s="17">
         <v>44122.000000000000</v>
@@ -1509,11 +1926,11 @@
     <row r="20">
       <c r="A20" s="1" t="s"/>
       <c r="B20" s="15" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C20" s="14"/>
       <c r="D20" s="13" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E20" s="12">
         <v>56134.86</v>
@@ -1525,7 +1942,7 @@
     <row r="21">
       <c r="A21" s="1" t="s"/>
       <c r="D21" s="11" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="E21" s="10">
         <f>SUM(RANGE_SUM1)</f>
@@ -1541,7 +1958,362 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col customWidth="1" max="2" min="2" style="1" width="19.5703125"/>
+    <col customWidth="1" max="3" min="3" style="1" width="12.28515625"/>
+    <col customWidth="1" max="4" min="4" style="1" width="19.140625"/>
+    <col customWidth="1" max="5" min="5" style="1" width="19.140625"/>
+    <col customWidth="1" max="6" min="6" style="1" width="19.140625"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="39" t="e">
+        <f>SUM(ARR_TAB[Number]*ARR_TAB[SUM 1])</f>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="39" t="e">
+        <f t="array" ref="C2">SUM(ARR_TAB[Number]*ARR_TAB[SUM 1])</f>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="39" t="e">
+        <f t="array" ref="C3">SUM(ARR_NUMBER*ARR_SUM1)</f>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="35" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="31">
+        <f>CODE(RIGHT(ARR_TAB[Group],1))-64</f>
+      </c>
+      <c r="E5" s="32">
+        <v>5971.44</v>
+      </c>
+      <c r="F5" s="36" t="e">
+        <f>ARR_TAB[Number]*ARR_TAB[SUM 1]</f>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="31">
+        <f>CODE(RIGHT(ARR_TAB[Group],1))-64</f>
+      </c>
+      <c r="E6" s="32">
+        <v>2276.75</v>
+      </c>
+      <c r="F6" s="36" t="e">
+        <f>ARR_TAB[Number]*ARR_TAB[SUM 1]</f>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="31">
+        <f>CODE(RIGHT(ARR_TAB[Group],1))-64</f>
+      </c>
+      <c r="E7" s="32">
+        <v>3031.38</v>
+      </c>
+      <c r="F7" s="36" t="e">
+        <f>ARR_TAB[Number]*ARR_TAB[SUM 1]</f>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="31">
+        <f>CODE(RIGHT(ARR_TAB[Group],1))-64</f>
+      </c>
+      <c r="E8" s="32">
+        <v>9476.79</v>
+      </c>
+      <c r="F8" s="36" t="e">
+        <f>ARR_TAB[Number]*ARR_TAB[SUM 1]</f>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="31">
+        <f>CODE(RIGHT(ARR_TAB[Group],1))-64</f>
+      </c>
+      <c r="E9" s="32">
+        <v>4604.00</v>
+      </c>
+      <c r="F9" s="36" t="e">
+        <f>ARR_TAB[Number]*ARR_TAB[SUM 1]</f>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="31">
+        <f>CODE(RIGHT(ARR_TAB[Group],1))-64</f>
+      </c>
+      <c r="E10" s="32">
+        <v>2159.71</v>
+      </c>
+      <c r="F10" s="36" t="e">
+        <f>ARR_TAB[Number]*ARR_TAB[SUM 1]</f>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="31">
+        <f>CODE(RIGHT(ARR_TAB[Group],1))-64</f>
+      </c>
+      <c r="E11" s="32">
+        <v>2490.30</v>
+      </c>
+      <c r="F11" s="36" t="e">
+        <f>ARR_TAB[Number]*ARR_TAB[SUM 1]</f>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="31">
+        <f>CODE(RIGHT(ARR_TAB[Group],1))-64</f>
+      </c>
+      <c r="E12" s="32">
+        <v>5476.81</v>
+      </c>
+      <c r="F12" s="36" t="e">
+        <f>ARR_TAB[Number]*ARR_TAB[SUM 1]</f>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="31">
+        <f>CODE(RIGHT(ARR_TAB[Group],1))-64</f>
+      </c>
+      <c r="E13" s="32">
+        <v>689.66</v>
+      </c>
+      <c r="F13" s="36" t="e">
+        <f>ARR_TAB[Number]*ARR_TAB[SUM 1]</f>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="31">
+        <f>CODE(RIGHT(ARR_TAB[Group],1))-64</f>
+      </c>
+      <c r="E14" s="32">
+        <v>5451.87</v>
+      </c>
+      <c r="F14" s="36" t="e">
+        <f>ARR_TAB[Number]*ARR_TAB[SUM 1]</f>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="31">
+        <f>CODE(RIGHT(ARR_TAB[Group],1))-64</f>
+      </c>
+      <c r="E15" s="32">
+        <v>4573.55</v>
+      </c>
+      <c r="F15" s="36" t="e">
+        <f>ARR_TAB[Number]*ARR_TAB[SUM 1]</f>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="31">
+        <f>CODE(RIGHT(ARR_TAB[Group],1))-64</f>
+      </c>
+      <c r="E16" s="32">
+        <v>1196.35</v>
+      </c>
+      <c r="F16" s="36" t="e">
+        <f>ARR_TAB[Number]*ARR_TAB[SUM 1]</f>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="31">
+        <f>CODE(RIGHT(ARR_TAB[Group],1))-64</f>
+      </c>
+      <c r="E17" s="32">
+        <v>7686.95</v>
+      </c>
+      <c r="F17" s="36" t="e">
+        <f>ARR_TAB[Number]*ARR_TAB[SUM 1]</f>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="31">
+        <f>CODE(RIGHT(ARR_TAB[Group],1))-64</f>
+      </c>
+      <c r="E18" s="32">
+        <v>978.18</v>
+      </c>
+      <c r="F18" s="36" t="e">
+        <f>ARR_TAB[Number]*ARR_TAB[SUM 1]</f>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="31">
+        <f>CODE(RIGHT(ARR_TAB[Group],1))-64</f>
+      </c>
+      <c r="E19" s="32">
+        <v>71.12</v>
+      </c>
+      <c r="F19" s="36" t="e">
+        <f>ARR_TAB[Number]*ARR_TAB[SUM 1]</f>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="38" t="e">
+        <f>SUBTOTAL(109,ARR_TAB[Number * SUM 1])</f>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="39" t="e">
+        <f t="array" ref="C22">SUM(ARR_TAB[Number]*ARR_TAB[SUM 1])</f>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="39" t="e">
+        <f t="array" ref="C23">SUM(ARR_NUMBER*ARR_SUM1)</f>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1563,24 +2335,24 @@
     </row>
     <row r="2">
       <c r="B2" s="1" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="20" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" hidden="1" outlineLevel="1">
@@ -1589,7 +2361,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D5" s="17">
         <v>44125.000000000000</v>
@@ -1607,7 +2379,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D6" s="17">
         <v>44125.000000000000</v>
@@ -1625,7 +2397,7 @@
         <v>10</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D7" s="17">
         <v>44125.000000000000</v>
@@ -1643,7 +2415,7 @@
         <v>13</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D8" s="17">
         <v>44125.000000000000</v>
@@ -1658,7 +2430,7 @@
     <row r="9">
       <c r="A9" s="1" t="s"/>
       <c r="B9" s="28" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C9" s="27"/>
       <c r="D9" s="26"/>
@@ -1675,7 +2447,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D10" s="17">
         <v>44123.000000000000</v>
@@ -1693,7 +2465,7 @@
         <v>11</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D11" s="17">
         <v>44123.000000000000</v>
@@ -1711,7 +2483,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D12" s="17">
         <v>44123.000000000000</v>
@@ -1729,7 +2501,7 @@
         <v>3</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D13" s="17">
         <v>44123.000000000000</v>
@@ -1747,7 +2519,7 @@
         <v>4</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D14" s="17">
         <v>44123.000000000000</v>
@@ -1762,7 +2534,7 @@
     <row r="15">
       <c r="A15" s="1" t="s"/>
       <c r="B15" s="28" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C15" s="27"/>
       <c r="D15" s="26"/>
@@ -1779,7 +2551,7 @@
         <v>8</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D16" s="17">
         <v>44124.000000000000</v>
@@ -1797,7 +2569,7 @@
         <v>12</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D17" s="17">
         <v>44124.000000000000</v>
@@ -1812,7 +2584,7 @@
     <row r="18">
       <c r="A18" s="1" t="s"/>
       <c r="B18" s="28" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C18" s="27"/>
       <c r="D18" s="26"/>
@@ -1829,7 +2601,7 @@
         <v>14</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D19" s="17">
         <v>44122.000000000000</v>
@@ -1847,7 +2619,7 @@
         <v>2</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D20" s="17">
         <v>44122.000000000000</v>
@@ -1865,7 +2637,7 @@
         <v>5</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D21" s="17">
         <v>44122.000000000000</v>
@@ -1883,7 +2655,7 @@
         <v>6</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D22" s="17">
         <v>44122.000000000000</v>
@@ -1898,7 +2670,7 @@
     <row r="23">
       <c r="A23" s="1" t="s"/>
       <c r="B23" s="28" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C23" s="27"/>
       <c r="D23" s="26"/>
@@ -1912,7 +2684,7 @@
     <row r="24">
       <c r="A24" s="1" t="s"/>
       <c r="B24" s="24" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C24" s="23"/>
       <c r="D24" s="22"/>

--- a/xtt_demo/ZXXT_DEMO_021_R.XLSX
+++ b/xtt_demo/ZXXT_DEMO_021_R.XLSX
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20371"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20373"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\!current\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\moldab\Desktop\abapgit save\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50987295-3BAD-4289-877E-78174E491290}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFC6C9C6-02AC-4E06-A54B-52B9C18B7D15}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,22 +25,23 @@
     <definedName name="E_2">'Tree3'!$E$15</definedName>
     <definedName name="E_3">'Tree3'!$E$18</definedName>
     <definedName name="E_4">'Tree3'!$E$23</definedName>
-    <definedName name="F_1">'SimpleTree'!$F$5</definedName>
-    <definedName name="F_10">'SimpleTree'!$F$14</definedName>
-    <definedName name="F_11">'SimpleTree'!$F$15</definedName>
-    <definedName name="F_12">'SimpleTree'!$F$16</definedName>
-    <definedName name="F_13">'SimpleTree'!$F$17</definedName>
-    <definedName name="F_14">'SimpleTree'!$F$18</definedName>
-    <definedName name="F_15">'SimpleTree'!$F$19</definedName>
-    <definedName name="F_2">'SimpleTree'!$F$6</definedName>
-    <definedName name="F_3">'SimpleTree'!$F$7</definedName>
-    <definedName name="F_4">'SimpleTree'!$F$8</definedName>
-    <definedName name="F_5">'SimpleTree'!$F$9</definedName>
-    <definedName name="F_6">'SimpleTree'!$F$10</definedName>
-    <definedName name="F_7">'SimpleTree'!$F$11</definedName>
-    <definedName name="F_8">'SimpleTree'!$F$12</definedName>
-    <definedName name="F_9">'SimpleTree'!$F$13</definedName>
-    <definedName name="RANGE_SUM1" localSheetId="1">'SimpleTree'!$E$5:$E$19</definedName>
+    <definedName name="F_1">'SimpleTree'!$F$7</definedName>
+    <definedName name="F_10">'SimpleTree'!$F$16</definedName>
+    <definedName name="F_11">'SimpleTree'!$F$17</definedName>
+    <definedName name="F_12">'SimpleTree'!$F$18</definedName>
+    <definedName name="F_13">'SimpleTree'!$F$19</definedName>
+    <definedName name="F_14">'SimpleTree'!$F$20</definedName>
+    <definedName name="F_15">'SimpleTree'!$F$21</definedName>
+    <definedName name="F_2">'SimpleTree'!$F$8</definedName>
+    <definedName name="F_3">'SimpleTree'!$F$9</definedName>
+    <definedName name="F_4">'SimpleTree'!$F$10</definedName>
+    <definedName name="F_5">'SimpleTree'!$F$11</definedName>
+    <definedName name="F_6">'SimpleTree'!$F$12</definedName>
+    <definedName name="F_7">'SimpleTree'!$F$13</definedName>
+    <definedName name="F_8">'SimpleTree'!$F$14</definedName>
+    <definedName name="F_9">'SimpleTree'!$F$15</definedName>
+    <definedName name="RANGE_SUM1" localSheetId="1">'SimpleTree'!$E$7:$E$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1">'SimpleTree'!$C$6:$D$6</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>&lt;Caption 1 /&gt;</t>
   </si>
@@ -159,6 +160,15 @@
     <t>Specify row number with $ sign</t>
   </si>
   <si>
+    <t>String 1 </t>
+  </si>
+  <si>
+    <t>String 2 </t>
+  </si>
+  <si>
+    <t>String 3 </t>
+  </si>
+  <si>
     <t>Sums by group GRP A</t>
   </si>
   <si>
@@ -169,6 +179,9 @@
   </si>
   <si>
     <t>Sums by group GRP D</t>
+  </si>
+  <si>
+    <t>Test autoFilter</t>
   </si>
   <si>
     <t>Title</t>
@@ -187,7 +200,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -232,6 +245,14 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -253,7 +274,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -393,12 +414,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -508,6 +555,8 @@
     </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -516,6 +565,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -562,6 +617,22 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -598,6 +669,22 @@
         <bottom/>
       </border>
       <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -638,6 +725,21 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -676,6 +778,21 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -712,68 +829,6 @@
         <bottom/>
       </border>
       <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -840,13 +895,13 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="ARR_TAB" displayName="ARR_TAB" ref="B4:F20" totalsRowCount="1" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10" headerRowCellStyle="Normal 2" dataCellStyle="Normal 2">
   <autoFilter ref="B4:F5" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Caption" totalsRowLabel="Totals with additional column" dataDxfId="9" totalsRowDxfId="4" dataCellStyle="Normal 2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Group" dataDxfId="8" totalsRowDxfId="3" dataCellStyle="Normal 2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Number" dataDxfId="7" totalsRowDxfId="2" dataCellStyle="Normal 2">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Caption" totalsRowLabel="Totals with additional column" dataDxfId="9" totalsRowDxfId="8" dataCellStyle="Normal 2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Group" dataDxfId="7" totalsRowDxfId="6" dataCellStyle="Normal 2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Number" dataDxfId="5" totalsRowDxfId="4" dataCellStyle="Normal 2">
       <calculatedColumnFormula>CODE(RIGHT(ARR_TAB[Group],1))-64</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="SUM 1" dataDxfId="6" totalsRowDxfId="1" dataCellStyle="Normal 2"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Number * SUM 1" totalsRowFunction="sum" dataDxfId="5" totalsRowDxfId="0" dataCellStyle="Normal 2">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="SUM 1" dataDxfId="3" totalsRowDxfId="2" dataCellStyle="Normal 2"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Number * SUM 1" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="0" dataCellStyle="Normal 2">
       <calculatedColumnFormula>ARR_TAB[Number]*ARR_TAB[SUM 1]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1138,7 +1193,7 @@
   <sheetData>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4">
@@ -1160,11 +1215,11 @@
       <c r="F4" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="41" t="s">
+      <c r="G4" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="H4" s="42"/>
-      <c r="I4" s="43"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="45"/>
     </row>
     <row r="5">
       <c r="A5" s="7" t="s">
@@ -1615,7 +1670,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1630,213 +1685,196 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s"/>
+      <c r="C1" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="47"/>
     </row>
     <row r="2">
-      <c r="B2" s="1" t="s">
-        <v>39</v>
+      <c r="B2" s="42" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="41" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="4">
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="41" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="41" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C6" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D6" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E6" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F6" s="20" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s"/>
-      <c r="B5" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="17">
-        <v>44125.000000000000</v>
-      </c>
-      <c r="E5" s="16">
-        <v>5971.44</v>
-      </c>
-      <c r="F5" s="16">
-        <v>5021.46</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="s"/>
-      <c r="B6" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="17">
-        <v>44123.000000000000</v>
-      </c>
-      <c r="E6" s="16">
-        <v>2276.75</v>
-      </c>
-      <c r="F6" s="16">
-        <v>7717.20</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s"/>
       <c r="B7" s="19" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D7" s="17">
-        <v>44124.000000000000</v>
+        <v>44125.000000000000</v>
       </c>
       <c r="E7" s="16">
-        <v>3031.38</v>
+        <v>5971.44</v>
       </c>
       <c r="F7" s="16">
-        <v>445.22</v>
+        <v>5021.46</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s"/>
       <c r="B8" s="19" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D8" s="17">
-        <v>44125.000000000000</v>
+        <v>44123.000000000000</v>
       </c>
       <c r="E8" s="16">
-        <v>9476.79</v>
+        <v>2276.75</v>
       </c>
       <c r="F8" s="16">
-        <v>3683.27</v>
+        <v>7717.20</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s"/>
       <c r="B9" s="19" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" s="17">
-        <v>44125.000000000000</v>
+        <v>44124.000000000000</v>
       </c>
       <c r="E9" s="16">
-        <v>4604.00</v>
+        <v>3031.38</v>
       </c>
       <c r="F9" s="16">
-        <v>5525.85</v>
+        <v>445.22</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s"/>
       <c r="B10" s="19" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D10" s="17">
-        <v>44123.000000000000</v>
+        <v>44125.000000000000</v>
       </c>
       <c r="E10" s="16">
-        <v>2159.71</v>
+        <v>9476.79</v>
       </c>
       <c r="F10" s="16">
-        <v>2260.94</v>
+        <v>3683.27</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s"/>
       <c r="B11" s="19" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D11" s="17">
-        <v>44124.000000000000</v>
+        <v>44125.000000000000</v>
       </c>
       <c r="E11" s="16">
-        <v>2490.30</v>
+        <v>4604.00</v>
       </c>
       <c r="F11" s="16">
-        <v>6388.81</v>
+        <v>5525.85</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s"/>
       <c r="B12" s="19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D12" s="17">
-        <v>44125.000000000000</v>
+        <v>44123.000000000000</v>
       </c>
       <c r="E12" s="16">
-        <v>5476.81</v>
+        <v>2159.71</v>
       </c>
       <c r="F12" s="16">
-        <v>406.18</v>
+        <v>2260.94</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s"/>
       <c r="B13" s="19" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D13" s="17">
-        <v>44122.000000000000</v>
+        <v>44124.000000000000</v>
       </c>
       <c r="E13" s="16">
-        <v>689.66</v>
+        <v>2490.30</v>
       </c>
       <c r="F13" s="16">
-        <v>518.60</v>
+        <v>6388.81</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s"/>
       <c r="B14" s="19" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D14" s="17">
-        <v>44123.000000000000</v>
+        <v>44125.000000000000</v>
       </c>
       <c r="E14" s="16">
-        <v>5451.87</v>
+        <v>5476.81</v>
       </c>
       <c r="F14" s="16">
-        <v>4061.85</v>
+        <v>406.18</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s"/>
       <c r="B15" s="19" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C15" s="18" t="s">
         <v>26</v>
@@ -1845,16 +1883,16 @@
         <v>44122.000000000000</v>
       </c>
       <c r="E15" s="16">
-        <v>4573.55</v>
+        <v>689.66</v>
       </c>
       <c r="F15" s="16">
-        <v>5436.00</v>
+        <v>518.60</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s"/>
       <c r="B16" s="19" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C16" s="18" t="s">
         <v>25</v>
@@ -1863,95 +1901,135 @@
         <v>44123.000000000000</v>
       </c>
       <c r="E16" s="16">
-        <v>1196.35</v>
+        <v>5451.87</v>
       </c>
       <c r="F16" s="16">
-        <v>522.46</v>
+        <v>4061.85</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s"/>
       <c r="B17" s="19" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" s="17">
-        <v>44123.000000000000</v>
+        <v>44122.000000000000</v>
       </c>
       <c r="E17" s="16">
-        <v>7686.95</v>
+        <v>4573.55</v>
       </c>
       <c r="F17" s="16">
-        <v>2727.98</v>
+        <v>5436.00</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s"/>
       <c r="B18" s="19" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" s="17">
-        <v>44122.000000000000</v>
+        <v>44123.000000000000</v>
       </c>
       <c r="E18" s="16">
-        <v>978.18</v>
+        <v>1196.35</v>
       </c>
       <c r="F18" s="16">
-        <v>295.55</v>
+        <v>522.46</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s"/>
       <c r="B19" s="19" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" s="17">
-        <v>44122.000000000000</v>
+        <v>44123.000000000000</v>
       </c>
       <c r="E19" s="16">
-        <v>71.12</v>
+        <v>7686.95</v>
       </c>
       <c r="F19" s="16">
-        <v>8878.56</v>
+        <v>2727.98</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s"/>
-      <c r="B20" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20" s="12">
-        <v>56134.86</v>
-      </c>
-      <c r="F20" s="12">
-        <v>53889.93</v>
+      <c r="B20" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="17">
+        <v>44122.000000000000</v>
+      </c>
+      <c r="E20" s="16">
+        <v>978.18</v>
+      </c>
+      <c r="F20" s="16">
+        <v>295.55</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s"/>
-      <c r="D21" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E21" s="10">
+      <c r="B21" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="17">
+        <v>44122.000000000000</v>
+      </c>
+      <c r="E21" s="16">
+        <v>71.12</v>
+      </c>
+      <c r="F21" s="16">
+        <v>8878.56</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="s"/>
+      <c r="B22" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="14"/>
+      <c r="D22" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="12">
+        <v>56134.86</v>
+      </c>
+      <c r="F22" s="12">
+        <v>53889.93</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="s"/>
+      <c r="D23" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23" s="10">
         <f>SUM(RANGE_SUM1)</f>
       </c>
-      <c r="F21" s="10">
+      <c r="F23" s="10">
         <f>SUM(F_1,F_2,F_3,F_4,F_5,F_6,F_7,F_8,F_9,F_10,F_11,F_12,F_13,F_14,F_15)</f>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="C6:D6" xr:uid="{AF84B392-4C8E-426F-AE18-C9DBA59C143A}"/>
+  <mergeCells count="1">
+    <mergeCell ref="C1:D1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2275,7 +2353,7 @@
     </row>
     <row r="20">
       <c r="B20" s="34" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C20" s="33"/>
       <c r="D20" s="33"/>
@@ -2335,7 +2413,7 @@
     </row>
     <row r="2">
       <c r="B2" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4">
@@ -2430,7 +2508,7 @@
     <row r="9">
       <c r="A9" s="1" t="s"/>
       <c r="B9" s="28" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C9" s="27"/>
       <c r="D9" s="26"/>
@@ -2534,7 +2612,7 @@
     <row r="15">
       <c r="A15" s="1" t="s"/>
       <c r="B15" s="28" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C15" s="27"/>
       <c r="D15" s="26"/>
@@ -2584,7 +2662,7 @@
     <row r="18">
       <c r="A18" s="1" t="s"/>
       <c r="B18" s="28" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C18" s="27"/>
       <c r="D18" s="26"/>
@@ -2670,7 +2748,7 @@
     <row r="23">
       <c r="A23" s="1" t="s"/>
       <c r="B23" s="28" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C23" s="27"/>
       <c r="D23" s="26"/>
